--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanCustRmk.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanCustRmk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA6589E-A4CB-491F-9BBE-5FBC941A4CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE415C1-ACA5-44A8-8AEF-40AAD961ED3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -183,9 +183,6 @@
     <t>備忘錄序號</t>
   </si>
   <si>
-    <t>備忘錄代碼</t>
-  </si>
-  <si>
     <t>備忘錄說明</t>
   </si>
   <si>
@@ -205,22 +202,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>共用代碼檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DECIMAL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>findRmkCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RmkCode =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CustUKey</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -238,10 +223,6 @@
   </si>
   <si>
     <t>RmkNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RmkCode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -257,18 +238,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">CustNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>RmkNo DESC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CustNo,RmkNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Key ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -279,6 +252,38 @@
   <si>
     <t>帳務備忘錄明細檔</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo,AcDate,RmkNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>會計日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMALD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate desc,RmkNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND AcDate =  </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.4.10 by eric
+轉換需同步調整邏輯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉換需同步調整邏輯</t>
   </si>
 </sst>
 </file>
@@ -365,7 +370,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,6 +381,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCFF"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -437,7 +448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -500,6 +511,9 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -843,7 +857,7 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -863,10 +877,10 @@
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -876,7 +890,7 @@
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
       <c r="C2" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>23</v>
@@ -891,7 +905,7 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -904,10 +918,10 @@
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -919,7 +933,7 @@
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="14"/>
@@ -932,7 +946,7 @@
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
@@ -978,13 +992,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="18">
         <v>7</v>
@@ -992,74 +1006,76 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
-        <v>3</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="18">
-        <v>3</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
+        <v>2</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="21">
+        <v>8</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E11" s="18">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="G11" s="21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E12" s="18">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="18" t="s">
-        <v>36</v>
-      </c>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>10</v>
@@ -1072,7 +1088,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>16</v>
@@ -1089,7 +1105,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>18</v>
@@ -1108,7 +1124,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>20</v>
@@ -1125,7 +1141,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>11</v>
@@ -1664,11 +1680,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1692,29 +1708,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanCustRmk.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanCustRmk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE415C1-ACA5-44A8-8AEF-40AAD961ED3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF80174-F22A-457C-BB6D-73C3D279F0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -196,10 +196,6 @@
   <si>
     <t>findCustNo</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RmkCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
@@ -506,14 +502,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -857,7 +853,7 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -872,25 +868,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>23</v>
@@ -900,12 +896,12 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -913,25 +909,25 @@
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="15" t="s">
         <v>32</v>
       </c>
@@ -941,23 +937,21 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="15" t="s">
-        <v>34</v>
-      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
       <c r="E7" s="14"/>
@@ -998,7 +992,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="18">
         <v>7</v>
@@ -1007,24 +1001,24 @@
       <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="19">
         <v>2</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="D10" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
         <v>8</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21" t="s">
-        <v>54</v>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1032,20 +1026,20 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="18">
         <v>3</v>
       </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="21" t="s">
-        <v>55</v>
+      <c r="G11" s="19" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1053,13 +1047,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="D12" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>38</v>
       </c>
       <c r="E12" s="18">
         <v>32</v>
@@ -1072,7 +1066,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>30</v>
@@ -1711,21 +1705,21 @@
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanCustRmk.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanCustRmk.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF80174-F22A-457C-BB6D-73C3D279F0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E9C2FD-0BA9-4DEE-A1E7-CB23D46EA0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -136,9 +136,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CreateDate</t>
-  </si>
-  <si>
     <t>建檔日期時間</t>
   </si>
   <si>
@@ -280,13 +277,55 @@
   </si>
   <si>
     <t>轉換需同步調整邏輯</t>
+  </si>
+  <si>
+    <t>FacmNo</t>
+  </si>
+  <si>
+    <t>額度編號</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>BormNo</t>
+  </si>
+  <si>
+    <t>撥款序號</t>
+  </si>
+  <si>
+    <t>交易內容檔序號</t>
+  </si>
+  <si>
+    <t>2022.4.28 by eric</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BorxNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BorxNoAll</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo = ,AND FacmNo = ,AND BormNo = ,AND BorxNo =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -365,8 +404,22 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,6 +435,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,7 +503,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -510,6 +569,21 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -850,95 +924,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="4"/>
+    <col min="7" max="7" width="27.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.453125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="15"/>
@@ -947,9 +1021,9 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="15"/>
@@ -958,9 +1032,9 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>4</v>
@@ -981,18 +1055,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="18">
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="18">
         <v>7</v>
@@ -1000,60 +1074,60 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.4">
       <c r="A10" s="19">
         <v>2</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D10" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>50</v>
       </c>
       <c r="E10" s="19">
         <v>8</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="18">
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="18">
         <v>3</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="18">
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="D12" s="18" t="s">
         <v>36</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>37</v>
       </c>
       <c r="E12" s="18">
         <v>32</v>
@@ -1061,15 +1135,15 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>10</v>
@@ -1080,106 +1154,142 @@
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="23">
+        <v>6</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="26">
+        <v>3</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="23">
+        <v>7</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="26">
+        <v>3</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="23">
+        <v>8</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="26">
         <v>4</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="F16" s="23"/>
+      <c r="G16" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="18">
+        <v>9</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="18" t="s">
+      <c r="D17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
-        <v>4</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="18">
-        <v>6</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
-        <v>4</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
-        <v>4</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="18">
-        <v>6</v>
-      </c>
+      <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="18">
+        <v>10</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="18">
+        <v>6</v>
+      </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="18">
+        <v>11</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="18">
+        <v>12</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="18">
+        <v>6</v>
+      </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -1188,7 +1298,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -1197,7 +1307,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -1206,7 +1316,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -1215,7 +1325,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -1224,7 +1334,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -1233,7 +1343,7 @@
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -1242,7 +1352,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -1251,7 +1361,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -1260,7 +1370,7 @@
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -1269,7 +1379,7 @@
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -1278,7 +1388,7 @@
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -1287,7 +1397,7 @@
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -1296,7 +1406,7 @@
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -1305,7 +1415,7 @@
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -1314,7 +1424,7 @@
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -1323,7 +1433,7 @@
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -1332,7 +1442,7 @@
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -1341,7 +1451,7 @@
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -1350,7 +1460,7 @@
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -1359,7 +1469,7 @@
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -1368,7 +1478,7 @@
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -1377,7 +1487,7 @@
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -1386,7 +1496,7 @@
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -1395,7 +1505,7 @@
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -1404,7 +1514,7 @@
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -1413,7 +1523,7 @@
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -1422,7 +1532,7 @@
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -1431,7 +1541,7 @@
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -1440,7 +1550,7 @@
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -1449,7 +1559,7 @@
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
@@ -1458,7 +1568,7 @@
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
@@ -1467,7 +1577,7 @@
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
@@ -1476,7 +1586,7 @@
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
@@ -1485,7 +1595,7 @@
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -1494,7 +1604,7 @@
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
@@ -1503,7 +1613,7 @@
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -1512,7 +1622,7 @@
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -1521,7 +1631,7 @@
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
@@ -1530,7 +1640,7 @@
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -1539,7 +1649,7 @@
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
@@ -1548,7 +1658,7 @@
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
@@ -1557,7 +1667,7 @@
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
@@ -1566,7 +1676,7 @@
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
@@ -1575,7 +1685,7 @@
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
@@ -1584,7 +1694,7 @@
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
@@ -1593,7 +1703,7 @@
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
@@ -1602,7 +1712,7 @@
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
@@ -1611,7 +1721,7 @@
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
@@ -1620,7 +1730,7 @@
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
@@ -1629,7 +1739,7 @@
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -1638,7 +1748,7 @@
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -1647,7 +1757,7 @@
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
@@ -1655,6 +1765,33 @@
       <c r="E73" s="18"/>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A75" s="18"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1674,22 +1811,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.08984375" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1700,26 +1837,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>43</v>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanCustRmk.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanCustRmk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E9C2FD-0BA9-4DEE-A1E7-CB23D46EA0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62C8E9B-911E-4265-9FBD-4DF6205408E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,17 @@
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -317,7 +327,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CreateDate</t>
+    <t xml:space="preserve">CreateDate </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -570,9 +580,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -584,6 +591,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -927,7 +937,7 @@
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A9" sqref="A9:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1155,65 +1165,65 @@
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>6</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="25">
         <v>3</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23" t="s">
+      <c r="F14" s="22"/>
+      <c r="G14" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="23">
+      <c r="A15" s="22">
         <v>7</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="25">
         <v>3</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23" t="s">
+      <c r="F15" s="22"/>
+      <c r="G15" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="23">
+      <c r="A16" s="22">
         <v>8</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="25">
         <v>4</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23" t="s">
+      <c r="F16" s="22"/>
+      <c r="G16" s="22" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1860,13 +1870,13 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="26" t="s">
         <v>65</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanCustRmk.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanCustRmk.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62C8E9B-911E-4265-9FBD-4DF6205408E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3786F844-FF8A-406B-AFB4-8A90D6813564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -42,9 +42,6 @@
   <si>
     <t>FunNm</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
   </si>
   <si>
     <r>
@@ -125,15 +122,9 @@
     </r>
   </si>
   <si>
-    <t>NVARCHAR2</t>
-  </si>
-  <si>
     <t>LastUpdateEmpNo</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>Table</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -146,24 +137,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>建檔日期時間</t>
-  </si>
-  <si>
-    <t>CreateEmpNo</t>
-  </si>
-  <si>
-    <t>建檔人員</t>
-  </si>
-  <si>
-    <t>LastUpdate</t>
-  </si>
-  <si>
-    <t>最後更新日期時間</t>
-  </si>
-  <si>
-    <t>最後更新人員</t>
-  </si>
-  <si>
     <t>Uni</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -181,19 +154,6 @@
   </si>
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>借款人戶號</t>
-  </si>
-  <si>
-    <t>備忘錄序號</t>
-  </si>
-  <si>
-    <t>備忘錄說明</t>
-  </si>
-  <si>
-    <t>CustNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -273,61 +233,112 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">CustNo = ,AND AcDate =  </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BorxNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND BormNo = ,AND BorxNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易內容檔序號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BormNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>borxNoAll</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>備忘錄序號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>AcDate desc,RmkNo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">CustNo = ,AND AcDate =  </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.4.10 by eric
-轉換需同步調整邏輯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>2022.4.10 by eric轉換需同步調整邏輯</t>
   </si>
   <si>
     <t>轉換需同步調整邏輯</t>
   </si>
   <si>
+    <t>2022.4.28 by eric</t>
+  </si>
+  <si>
+    <t>LastUpdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateEmpNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>FacmNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款人戶號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備忘錄說明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>額度編號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撥款序號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建檔日期時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建檔人員</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後更新日期時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後更新人員</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-  </si>
-  <si>
-    <t>BormNo</t>
-  </si>
-  <si>
-    <t>撥款序號</t>
-  </si>
-  <si>
-    <t>交易內容檔序號</t>
-  </si>
-  <si>
-    <t>2022.4.28 by eric</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BorxNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BorxNoAll</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo = ,AND FacmNo = ,AND BormNo = ,AND BorxNo =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CreateDate </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +524,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -574,26 +585,29 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -934,874 +948,370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.453125" style="4"/>
+    <col min="7" max="7" width="43.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="21"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="27"/>
       <c r="C1" s="8" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="12" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="21"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="27"/>
       <c r="C3" s="8" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="21"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="27"/>
       <c r="C4" s="15" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="21"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="27"/>
       <c r="C5" s="15" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="21"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="27"/>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="21"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="27"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="18">
+        <v>20</v>
+      </c>
+      <c r="E9" s="24">
         <v>7</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>2</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="19">
+        <v>36</v>
+      </c>
+      <c r="E10" s="25">
         <v>8</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="18">
+        <v>20</v>
+      </c>
+      <c r="E11" s="24">
         <v>3</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="18">
+        <v>23</v>
+      </c>
+      <c r="E12" s="24">
         <v>32</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="18">
+        <v>63</v>
+      </c>
+      <c r="E13" s="24">
         <v>120</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="22">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
         <v>6</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="D14" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="22">
+        <v>3</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="20">
+        <v>7</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="25">
+      <c r="D15" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="22">
         <v>3</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="22">
-        <v>7</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="25">
-        <v>3</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="22">
+      <c r="F15" s="20"/>
+      <c r="G15" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="20">
         <v>8</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="25">
+      <c r="B16" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="22">
         <v>4</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F16" s="20"/>
+      <c r="G16" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="18"/>
+        <v>61</v>
+      </c>
+      <c r="E17" s="24"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="18">
+        <v>60</v>
+      </c>
+      <c r="E18" s="24">
         <v>6</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="18"/>
+        <v>61</v>
+      </c>
+      <c r="E19" s="24"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="18">
+        <v>60</v>
+      </c>
+      <c r="E20" s="24">
         <v>6</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A72" s="18"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A76" s="18"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1823,20 +1333,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.08984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1847,37 +1357,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>65</v>
+      <c r="C4" s="23" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanCustRmk.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanCustRmk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3786F844-FF8A-406B-AFB4-8A90D6813564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539DCAFB-D1C6-46E2-80A0-22954B893206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -339,6 +339,22 @@
   </si>
   <si>
     <t>CreateDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>borxNoEquals</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BorxNo &gt;= ,AND BorxNo &lt;= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>custNoAndBorxNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo &gt;= ,AND CustNo &lt;= ,AND BorxNo &gt;= ,AND BorxNo &lt;= </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1331,11 +1347,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1390,6 +1406,25 @@
         <v>64</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanCustRmk.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanCustRmk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539DCAFB-D1C6-46E2-80A0-22954B893206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D0CB16-24E9-4AD0-8D4F-794C819751DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -31,17 +31,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>讀取Key條件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>其他ORDER條件</t>
   </si>
   <si>
     <t>FunNm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -126,247 +126,144 @@
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ForeignKey1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Uni</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoanCustRmk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳務備忘錄明細檔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CustNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款人戶號</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>RmkNo</t>
+  </si>
+  <si>
+    <t>備忘錄序號</t>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+  </si>
+  <si>
+    <t>RmkCode</t>
+  </si>
+  <si>
+    <t>備忘錄代碼</t>
+  </si>
+  <si>
+    <t>共用代碼檔
+301:309整批入帳備忘說明</t>
+  </si>
+  <si>
+    <t>RmkDesc</t>
+  </si>
+  <si>
+    <t>備忘錄說明</t>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+  </si>
+  <si>
+    <t>CreateDate</t>
+  </si>
+  <si>
+    <t>建檔日期時間</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>CreateEmpNo</t>
+  </si>
+  <si>
+    <t>建檔人員</t>
+  </si>
+  <si>
+    <t>LastUpdate</t>
+  </si>
+  <si>
+    <t>最後更新日期時間</t>
+  </si>
+  <si>
+    <t>最後更新人員</t>
+  </si>
+  <si>
+    <t>CustNo,RmkNo</t>
   </si>
   <si>
     <t>findCustNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustUKey</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客戶識別碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustMain(CustUKey)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RmkNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RmkDesc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = </t>
+  </si>
+  <si>
+    <t>findRmkCode</t>
+  </si>
+  <si>
+    <t>RmkCode =</t>
   </si>
   <si>
     <t>maxRmkNoFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RmkNo DESC</t>
   </si>
   <si>
     <t xml:space="preserve">CustNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RmkNo DESC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoanCustRmk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>帳務備忘錄明細檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo,AcDate,RmkNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>會計日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMALD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = ,AND AcDate =  </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BorxNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND BormNo = ,AND BorxNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易內容檔序號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BormNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>borxNoAll</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>備忘錄序號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDate desc,RmkNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.4.10 by eric轉換需同步調整邏輯</t>
-  </si>
-  <si>
-    <t>轉換需同步調整邏輯</t>
-  </si>
-  <si>
-    <t>2022.4.28 by eric</t>
-  </si>
-  <si>
-    <t>LastUpdate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateEmpNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FacmNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>借款人戶號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>備忘錄說明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>額度編號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>撥款序號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建檔日期時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建檔人員</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後更新日期時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後更新人員</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>borxNoEquals</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">BorxNo &gt;= ,AND BorxNo &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>custNoAndBorxNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo &gt;= ,AND CustNo &lt;= ,AND BorxNo &gt;= ,AND BorxNo &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -374,7 +271,15 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -441,22 +346,8 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,12 +363,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,103 +417,101 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{C794B089-9764-45A3-9F1F-001A037785CA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -964,43 +847,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="4"/>
+    <col min="7" max="7" width="43.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="12" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>13</v>
@@ -1009,70 +892,68 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="16"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="20"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="16"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="20"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="20"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
@@ -1095,239 +976,155 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="7" customFormat="1">
       <c r="A9" s="18">
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="24">
+        <v>23</v>
+      </c>
+      <c r="E9" s="18">
         <v>7</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+    <row r="10" spans="1:7" s="7" customFormat="1">
+      <c r="A10" s="18">
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="25">
-        <v>8</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="18">
+        <v>3</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" ht="33">
       <c r="A11" s="18">
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="24">
+        <v>26</v>
+      </c>
+      <c r="E11" s="18">
         <v>3</v>
       </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="18">
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="24">
         <v>32</v>
+      </c>
+      <c r="E12" s="18">
+        <v>120</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="18">
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="24">
-        <v>120</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="20">
+    <row r="14" spans="1:7">
+      <c r="A14" s="18">
         <v>6</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="22">
-        <v>3</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="20">
+      <c r="B14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="18">
+        <v>6</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="18">
         <v>7</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="22">
-        <v>3</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="20">
+      <c r="B15" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="18">
         <v>8</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="22">
-        <v>4</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
+      <c r="B16" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
-        <v>10</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="24">
+      <c r="C16" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="18">
         <v>6</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
-        <v>11</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
-        <v>12</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="24">
-        <v>6</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1339,7 +1136,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1347,22 +1144,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1373,60 +1170,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>40</v>
-      </c>
       <c r="C4" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanCustRmk.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanCustRmk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D0CB16-24E9-4AD0-8D4F-794C819751DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32547D0C-62B9-4967-B5A4-F097FE533800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -193,65 +193,91 @@
     <t>備忘錄代碼</t>
   </si>
   <si>
+    <t>RmkDesc</t>
+  </si>
+  <si>
+    <t>備忘錄說明</t>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+  </si>
+  <si>
+    <t>CreateDate</t>
+  </si>
+  <si>
+    <t>建檔日期時間</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>CreateEmpNo</t>
+  </si>
+  <si>
+    <t>建檔人員</t>
+  </si>
+  <si>
+    <t>LastUpdate</t>
+  </si>
+  <si>
+    <t>最後更新日期時間</t>
+  </si>
+  <si>
+    <t>最後更新人員</t>
+  </si>
+  <si>
+    <t>findCustNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = </t>
+  </si>
+  <si>
+    <t>findRmkCode</t>
+  </si>
+  <si>
+    <t>RmkCode =</t>
+  </si>
+  <si>
+    <t>maxRmkNoFirst</t>
+  </si>
+  <si>
+    <t>RmkNo DESC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo,AcDate,RmkNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>會計日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMALD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增此筆帳務備忘錄時的系統會計日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>共用代碼檔
 301:309整批入帳備忘說明</t>
-  </si>
-  <si>
-    <t>RmkDesc</t>
-  </si>
-  <si>
-    <t>備忘錄說明</t>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
-  </si>
-  <si>
-    <t>CreateDate</t>
-  </si>
-  <si>
-    <t>建檔日期時間</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>CreateEmpNo</t>
-  </si>
-  <si>
-    <t>建檔人員</t>
-  </si>
-  <si>
-    <t>LastUpdate</t>
-  </si>
-  <si>
-    <t>最後更新日期時間</t>
-  </si>
-  <si>
-    <t>最後更新人員</t>
-  </si>
-  <si>
-    <t>CustNo,RmkNo</t>
-  </si>
-  <si>
-    <t>findCustNo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = </t>
-  </si>
-  <si>
-    <t>findRmkCode</t>
-  </si>
-  <si>
-    <t>RmkCode =</t>
-  </si>
-  <si>
-    <t>maxRmkNoFirst</t>
-  </si>
-  <si>
-    <t>RmkNo DESC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RmkCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo asc,AcDate asc,RmkNo asc</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -259,11 +285,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -271,7 +297,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -279,7 +305,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -297,14 +323,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="細明體"/>
@@ -345,6 +363,31 @@
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -444,68 +487,68 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -847,284 +890,305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.5" style="4"/>
+    <col min="7" max="7" width="43.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="12" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="24" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="24" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="24" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="24" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
+        <v>1</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="17">
+        <v>7</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
+        <v>2</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="17">
+        <v>8</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
+        <v>3</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="17">
+        <v>3</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <v>4</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1">
-      <c r="A8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="C12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="17">
         <v>3</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
         <v>5</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="B13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="17">
+        <v>120</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
         <v>6</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="B14" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="B15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="17">
+        <v>6</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" s="7" customFormat="1">
-      <c r="A9" s="18">
-        <v>1</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="18">
-        <v>7</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:7" s="7" customFormat="1">
-      <c r="A10" s="18">
-        <v>2</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="18">
-        <v>3</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:7" ht="33">
-      <c r="A11" s="18">
-        <v>3</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="B16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
+        <v>9</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="18">
-        <v>3</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="18">
-        <v>4</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="18">
-        <v>120</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="18">
-        <v>5</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="18">
+      <c r="E17" s="17">
         <v>6</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="18">
-        <v>6</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="18">
-        <v>7</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="18">
-        <v>8</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="18">
-        <v>6</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1148,59 +1212,59 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="23" t="s">
+      <c r="B3" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B4" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanCustRmk.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanCustRmk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32547D0C-62B9-4967-B5A4-F097FE533800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F97B3BA-4BEA-40AA-BB32-2CE258F724FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,11 +471,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -484,25 +484,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -511,9 +508,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -526,29 +520,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -893,7 +881,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -901,294 +889,294 @@
     <col min="1" max="1" width="5.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="4"/>
+    <col min="8" max="16384" width="21.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+    <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
         <v>1</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <v>7</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
         <v>2</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="15">
         <v>8</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+    <row r="11" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
         <v>3</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <v>3</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+      <c r="A12" s="15">
         <v>4</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <v>3</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17" t="s">
+      <c r="F12" s="15"/>
+      <c r="G12" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+      <c r="A13" s="15">
         <v>5</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="15">
         <v>120</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+      <c r="A14" s="15">
         <v>6</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
+      <c r="A15" s="15">
         <v>7</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
         <v>6</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
+      <c r="A16" s="15">
         <v>8</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
+      <c r="A17" s="15">
         <v>9</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="15">
         <v>6</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1224,46 +1212,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="18" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="18" t="s">
         <v>45</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanCustRmk.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanCustRmk.xlsx
@@ -1,32 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F97B3BA-4BEA-40AA-BB32-2CE258F724FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700F5211-ABCE-46A1-8B7F-CF60CDC2DEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -208,9 +198,6 @@
     <t>建檔日期時間</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
   </si>
   <si>
@@ -279,6 +266,9 @@
   <si>
     <t>CustNo asc,AcDate asc,RmkNo asc</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -558,9 +548,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -598,9 +588,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -633,26 +623,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -685,26 +658,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -881,7 +837,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -929,7 +885,7 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="8"/>
@@ -966,7 +922,7 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="8"/>
@@ -1031,20 +987,20 @@
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>50</v>
       </c>
       <c r="E10" s="15">
         <v>8</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1084,7 +1040,7 @@
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1117,7 +1073,7 @@
         <v>33</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
@@ -1128,10 +1084,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>26</v>
@@ -1147,13 +1103,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="D16" s="15" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
@@ -1167,7 +1123,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>26</v>
@@ -1224,35 +1180,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>43</v>
-      </c>
       <c r="C3" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>44</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
